--- a/pre pord/lean-canvas_Solenne_Hector.xlsx
+++ b/pre pord/lean-canvas_Solenne_Hector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdidr\Documents\solenne\GITHUB\PROJETWEB\projet_web\pre pord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F927CD96-6937-4D53-B3FC-C36FC156D0A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3541D2C-0A67-42A1-AB7E-A3AEFDBC2668}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
